--- a/2024/safe/sept_docs/tables.xlsx
+++ b/2024/safe/sept_docs/tables.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:AD141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B18" sqref="B18:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,13 +656,13 @@
         <v>2727.26</v>
       </c>
       <c r="N2">
-        <v>2693.24</v>
+        <v>2715.8</v>
       </c>
       <c r="O2">
-        <v>2328.98</v>
+        <v>2342.31</v>
       </c>
       <c r="P2">
-        <v>1967.19</v>
+        <v>1974.01</v>
       </c>
       <c r="Q2" t="s">
         <v>8</v>
@@ -737,13 +737,13 @@
         <v>3.9868900000000002E-12</v>
       </c>
       <c r="N3" s="1">
-        <v>1.66999E-12</v>
+        <v>2.4433699999999999E-12</v>
       </c>
       <c r="O3" s="1">
-        <v>1.39869E-12</v>
+        <v>1.98061E-12</v>
       </c>
       <c r="P3" s="1">
-        <v>1.3535599999999999E-12</v>
+        <v>1.9093599999999999E-12</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -899,13 +899,13 @@
         <v>-8.0302199999999999</v>
       </c>
       <c r="N5">
-        <v>3.8146800000000001</v>
+        <v>0.63081299999999996</v>
       </c>
       <c r="O5">
-        <v>4.6839700000000004</v>
+        <v>1.4591099999999999</v>
       </c>
       <c r="P5">
-        <v>5.6375900000000003</v>
+        <v>2.1550500000000001</v>
       </c>
       <c r="Q5" t="s">
         <v>11</v>
@@ -980,13 +980,13 @@
         <v>1697.31</v>
       </c>
       <c r="N6">
-        <v>1644.35</v>
+        <v>1676.9</v>
       </c>
       <c r="O6">
-        <v>1484.14</v>
+        <v>1507.59</v>
       </c>
       <c r="P6">
-        <v>1313.35</v>
+        <v>1330.4</v>
       </c>
       <c r="Q6" t="s">
         <v>12</v>
@@ -1061,13 +1061,13 @@
         <v>1030.48</v>
       </c>
       <c r="N7">
-        <v>1037.08</v>
+        <v>1030.97</v>
       </c>
       <c r="O7">
-        <v>831.90899999999999</v>
+        <v>825.75199999999995</v>
       </c>
       <c r="P7">
-        <v>639.21799999999996</v>
+        <v>633.31399999999996</v>
       </c>
       <c r="Q7" t="s">
         <v>13</v>
@@ -1223,13 +1223,13 @@
         <v>-2.95703</v>
       </c>
       <c r="N9">
-        <v>-2.5335100000000002</v>
+        <v>-3.0343900000000001</v>
       </c>
       <c r="O9">
-        <v>-2.2017899999999999</v>
+        <v>-2.7395999999999998</v>
       </c>
       <c r="P9">
-        <v>-0.95913899999999996</v>
+        <v>-1.62154</v>
       </c>
       <c r="Q9" t="s">
         <v>15</v>
@@ -1304,13 +1304,13 @@
         <v>3.2481200000000001</v>
       </c>
       <c r="N10">
-        <v>3.2295500000000001</v>
+        <v>3.1713900000000002</v>
       </c>
       <c r="O10">
-        <v>3.2572800000000002</v>
+        <v>3.1835399999999998</v>
       </c>
       <c r="P10">
-        <v>3.0763099999999999</v>
+        <v>3.0171600000000001</v>
       </c>
       <c r="Q10" t="s">
         <v>16</v>
@@ -1466,13 +1466,13 @@
         <v>1.1526700000000001</v>
       </c>
       <c r="N12">
-        <v>1.3205800000000001</v>
+        <v>1.15629</v>
       </c>
       <c r="O12">
-        <v>1.2945</v>
+        <v>1.13374</v>
       </c>
       <c r="P12">
-        <v>1.2404599999999999</v>
+        <v>1.0816399999999999</v>
       </c>
       <c r="Q12" t="s">
         <v>18</v>
@@ -1547,13 +1547,13 @@
         <v>1.3442600000000001E-2</v>
       </c>
       <c r="N13">
-        <v>1.1993800000000001E-2</v>
+        <v>1.22484E-2</v>
       </c>
       <c r="O13">
-        <v>1.1967800000000001E-2</v>
+        <v>1.22407E-2</v>
       </c>
       <c r="P13">
-        <v>1.23499E-2</v>
+        <v>1.23433E-2</v>
       </c>
       <c r="Q13" t="s">
         <v>19</v>
@@ -1628,13 +1628,13 @@
         <v>6.0438799999999997</v>
       </c>
       <c r="N14">
-        <v>5.9694399999999996</v>
+        <v>5.9992099999999997</v>
       </c>
       <c r="O14">
-        <v>5.8871099999999998</v>
+        <v>5.9178899999999999</v>
       </c>
       <c r="P14">
-        <v>5.6208900000000002</v>
+        <v>5.6547000000000001</v>
       </c>
       <c r="Q14" t="s">
         <v>20</v>
@@ -1858,15 +1858,15 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ref="C18:E18" si="14">N2</f>
-        <v>2693.24</v>
+        <v>2715.8</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="14"/>
-        <v>2328.98</v>
+        <v>2342.31</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="14"/>
-        <v>1967.19</v>
+        <v>1974.01</v>
       </c>
       <c r="S18" t="s">
         <v>0</v>
@@ -1915,15 +1915,15 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" ref="C19:E19" si="15">N3</f>
-        <v>1.66999E-12</v>
+        <v>2.4433699999999999E-12</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="15"/>
-        <v>1.39869E-12</v>
+        <v>1.98061E-12</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="15"/>
-        <v>1.3535599999999999E-12</v>
+        <v>1.9093599999999999E-12</v>
       </c>
       <c r="S19" t="s">
         <v>0</v>
@@ -1972,15 +1972,15 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ref="C20:E20" si="16">N5</f>
-        <v>3.8146800000000001</v>
+        <v>0.63081299999999996</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="16"/>
-        <v>4.6839700000000004</v>
+        <v>1.4591099999999999</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="16"/>
-        <v>5.6375900000000003</v>
+        <v>2.1550500000000001</v>
       </c>
       <c r="S20" t="s">
         <v>0</v>
@@ -2029,15 +2029,15 @@
       </c>
       <c r="C21" s="6">
         <f>Y87</f>
-        <v>-5.2492200000000002</v>
+        <v>-5.2283999999999997</v>
       </c>
       <c r="D21" s="6">
         <f>Y107</f>
-        <v>-5.1380100000000004</v>
+        <v>-5.0798500000000004</v>
       </c>
       <c r="E21" s="6">
         <f>Y127</f>
-        <v>-5.2166699999999997</v>
+        <v>-5.1719600000000003</v>
       </c>
       <c r="S21" t="s">
         <v>0</v>
@@ -2086,15 +2086,15 @@
       </c>
       <c r="C22" s="6">
         <f>Z87</f>
-        <v>9.0639000000000003</v>
+        <v>5.85921</v>
       </c>
       <c r="D22" s="6">
         <f>Z107</f>
-        <v>9.8219700000000003</v>
+        <v>6.5389600000000003</v>
       </c>
       <c r="E22" s="6">
         <f>Z127</f>
-        <v>10.8543</v>
+        <v>7.3270099999999996</v>
       </c>
       <c r="S22" t="s">
         <v>1</v>
@@ -2138,20 +2138,20 @@
         <v>57</v>
       </c>
       <c r="B23" s="6">
-        <f>J6</f>
-        <v>1817.93</v>
+        <f>M6</f>
+        <v>1697.31</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:E23" si="17">K6</f>
-        <v>1868.43</v>
+        <f t="shared" ref="C23:E23" si="17">N6</f>
+        <v>1676.9</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="17"/>
-        <v>1704.53</v>
+        <v>1507.59</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="17"/>
-        <v>1697.31</v>
+        <v>1330.4</v>
       </c>
       <c r="S23" t="s">
         <v>1</v>
@@ -2195,20 +2195,20 @@
         <v>58</v>
       </c>
       <c r="B24" s="6">
-        <f>J7</f>
-        <v>1101.99</v>
+        <f>M7</f>
+        <v>1030.48</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:E24" si="18">K7</f>
-        <v>1180.1600000000001</v>
+        <f t="shared" ref="C24:E24" si="18">N7</f>
+        <v>1030.97</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="18"/>
-        <v>1100.23</v>
+        <v>825.75199999999995</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="18"/>
-        <v>1030.48</v>
+        <v>633.31399999999996</v>
       </c>
       <c r="S24" t="s">
         <v>1</v>
@@ -2257,15 +2257,15 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" ref="C25:E25" si="19">N9</f>
-        <v>-2.5335100000000002</v>
+        <v>-3.0343900000000001</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="19"/>
-        <v>-2.2017899999999999</v>
+        <v>-2.7395999999999998</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="19"/>
-        <v>-0.95913899999999996</v>
+        <v>-1.62154</v>
       </c>
       <c r="S25" t="s">
         <v>1</v>
@@ -2314,15 +2314,15 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" ref="C26:C30" si="21">N10</f>
-        <v>3.2295500000000001</v>
+        <v>3.1713900000000002</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" ref="D26:D30" si="22">O10</f>
-        <v>3.2572800000000002</v>
+        <v>3.1835399999999998</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" ref="E26:E30" si="23">P10</f>
-        <v>3.0763099999999999</v>
+        <v>3.0171600000000001</v>
       </c>
       <c r="S26" t="s">
         <v>1</v>
@@ -2428,15 +2428,15 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" si="21"/>
-        <v>1.3205800000000001</v>
+        <v>1.15629</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="22"/>
-        <v>1.2945</v>
+        <v>1.13374</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="23"/>
-        <v>1.2404599999999999</v>
+        <v>1.0816399999999999</v>
       </c>
       <c r="S28" t="s">
         <v>1</v>
@@ -2485,15 +2485,15 @@
       </c>
       <c r="C29" s="6">
         <f t="shared" si="21"/>
-        <v>1.1993800000000001E-2</v>
+        <v>1.22484E-2</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="22"/>
-        <v>1.1967800000000001E-2</v>
+        <v>1.22407E-2</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="23"/>
-        <v>1.23499E-2</v>
+        <v>1.23433E-2</v>
       </c>
       <c r="S29" t="s">
         <v>1</v>
@@ -2542,15 +2542,15 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" si="21"/>
-        <v>5.9694399999999996</v>
+        <v>5.9992099999999997</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="22"/>
-        <v>5.8871099999999998</v>
+        <v>5.9178899999999999</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="23"/>
-        <v>5.6208900000000002</v>
+        <v>5.6547000000000001</v>
       </c>
       <c r="S30" t="s">
         <v>1</v>
@@ -4573,16 +4573,16 @@
         <v>35</v>
       </c>
       <c r="U83" s="1">
-        <v>1.66999E-12</v>
+        <v>2.4433699999999999E-12</v>
       </c>
       <c r="V83" s="1">
-        <v>4.7941900000000002E-13</v>
+        <v>7.23309E-13</v>
       </c>
       <c r="W83" s="1">
-        <v>5.8058899999999998E-13</v>
+        <v>8.4918899999999997E-13</v>
       </c>
       <c r="X83" s="1">
-        <v>6.0998600000000002E-13</v>
+        <v>8.7087099999999998E-13</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>39</v>
       </c>
       <c r="U87">
-        <v>3.8146800000000001</v>
+        <v>0.63081299999999996</v>
       </c>
       <c r="V87">
         <v>0</v>
@@ -4737,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>-5.2492200000000002</v>
+        <v>-5.2283999999999997</v>
       </c>
       <c r="Z87">
-        <v>9.0639000000000003</v>
+        <v>5.85921</v>
       </c>
       <c r="AA87">
         <v>0</v>
@@ -4877,22 +4877,22 @@
         <v>43</v>
       </c>
       <c r="U91">
-        <v>1644.35</v>
+        <v>1676.9</v>
       </c>
       <c r="V91">
-        <v>527.428</v>
+        <v>533.29999999999995</v>
       </c>
       <c r="W91">
-        <v>335.012</v>
+        <v>341.11700000000002</v>
       </c>
       <c r="X91">
-        <v>349.24</v>
+        <v>367.65600000000001</v>
       </c>
       <c r="Y91">
-        <v>185.14099999999999</v>
+        <v>184.12100000000001</v>
       </c>
       <c r="Z91">
-        <v>247.52500000000001</v>
+        <v>250.703</v>
       </c>
       <c r="AA91">
         <v>0</v>
@@ -5029,19 +5029,19 @@
         <v>47</v>
       </c>
       <c r="U95">
-        <v>1037.08</v>
+        <v>1030.97</v>
       </c>
       <c r="V95">
-        <v>162.32599999999999</v>
+        <v>162.077</v>
       </c>
       <c r="W95">
-        <v>216.697</v>
+        <v>214.84399999999999</v>
       </c>
       <c r="X95">
-        <v>176.589</v>
+        <v>175.09399999999999</v>
       </c>
       <c r="Y95">
-        <v>481.471</v>
+        <v>478.95499999999998</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -5333,16 +5333,16 @@
         <v>35</v>
       </c>
       <c r="U103" s="1">
-        <v>1.39869E-12</v>
+        <v>1.98061E-12</v>
       </c>
       <c r="V103" s="1">
-        <v>4.0113499999999999E-13</v>
+        <v>5.8552700000000002E-13</v>
       </c>
       <c r="W103" s="1">
-        <v>4.8648299999999998E-13</v>
+        <v>6.8872700000000002E-13</v>
       </c>
       <c r="X103" s="1">
-        <v>5.1107200000000001E-13</v>
+        <v>7.0635499999999997E-13</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="U107">
-        <v>4.6839700000000004</v>
+        <v>1.4591099999999999</v>
       </c>
       <c r="V107">
         <v>0</v>
@@ -5497,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="Y107">
-        <v>-5.1380100000000004</v>
+        <v>-5.0798500000000004</v>
       </c>
       <c r="Z107">
-        <v>9.8219700000000003</v>
+        <v>6.5389600000000003</v>
       </c>
       <c r="AA107">
         <v>0</v>
@@ -5637,22 +5637,22 @@
         <v>43</v>
       </c>
       <c r="U111">
-        <v>1484.14</v>
+        <v>1507.59</v>
       </c>
       <c r="V111">
-        <v>487.39600000000002</v>
+        <v>487.11700000000002</v>
       </c>
       <c r="W111">
-        <v>291.67599999999999</v>
+        <v>298.40899999999999</v>
       </c>
       <c r="X111">
-        <v>324.06</v>
+        <v>338.73</v>
       </c>
       <c r="Y111">
-        <v>177.339</v>
+        <v>176.512</v>
       </c>
       <c r="Z111">
-        <v>203.67099999999999</v>
+        <v>206.82400000000001</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -5789,19 +5789,19 @@
         <v>47</v>
       </c>
       <c r="U115">
-        <v>831.90899999999999</v>
+        <v>825.75199999999995</v>
       </c>
       <c r="V115">
-        <v>129.48500000000001</v>
+        <v>129.22499999999999</v>
       </c>
       <c r="W115">
-        <v>166.511</v>
+        <v>164.59899999999999</v>
       </c>
       <c r="X115">
-        <v>136.97499999999999</v>
+        <v>135.45500000000001</v>
       </c>
       <c r="Y115">
-        <v>398.93799999999999</v>
+        <v>396.47300000000001</v>
       </c>
       <c r="Z115">
         <v>0</v>
@@ -6093,16 +6093,16 @@
         <v>35</v>
       </c>
       <c r="U123" s="1">
-        <v>1.3535599999999999E-12</v>
+        <v>1.9093599999999999E-12</v>
       </c>
       <c r="V123" s="1">
-        <v>3.8694700000000002E-13</v>
+        <v>5.62856E-13</v>
       </c>
       <c r="W123" s="1">
-        <v>4.7222699999999998E-13</v>
+        <v>6.6548499999999997E-13</v>
       </c>
       <c r="X123" s="1">
-        <v>4.9439100000000005E-13</v>
+        <v>6.8102100000000003E-13</v>
       </c>
       <c r="Y123">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>39</v>
       </c>
       <c r="U127">
-        <v>5.6375900000000003</v>
+        <v>2.1550500000000001</v>
       </c>
       <c r="V127">
         <v>0</v>
@@ -6257,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="Y127">
-        <v>-5.2166699999999997</v>
+        <v>-5.1719600000000003</v>
       </c>
       <c r="Z127">
-        <v>10.8543</v>
+        <v>7.3270099999999996</v>
       </c>
       <c r="AA127">
         <v>0</v>
@@ -6397,22 +6397,22 @@
         <v>43</v>
       </c>
       <c r="U131">
-        <v>1313.35</v>
+        <v>1330.4</v>
       </c>
       <c r="V131">
-        <v>437.61399999999998</v>
+        <v>434.077</v>
       </c>
       <c r="W131">
-        <v>250.06399999999999</v>
+        <v>257.00200000000001</v>
       </c>
       <c r="X131">
-        <v>295.79199999999997</v>
+        <v>306.779</v>
       </c>
       <c r="Y131">
-        <v>156.59100000000001</v>
+        <v>156.179</v>
       </c>
       <c r="Z131">
-        <v>173.28800000000001</v>
+        <v>176.363</v>
       </c>
       <c r="AA131">
         <v>0</v>
@@ -6549,19 +6549,19 @@
         <v>47</v>
       </c>
       <c r="U135">
-        <v>639.21799999999996</v>
+        <v>633.31399999999996</v>
       </c>
       <c r="V135">
-        <v>94.1755</v>
+        <v>93.741</v>
       </c>
       <c r="W135">
-        <v>120.583</v>
+        <v>118.61799999999999</v>
       </c>
       <c r="X135">
-        <v>96.679000000000002</v>
+        <v>95.161100000000005</v>
       </c>
       <c r="Y135">
-        <v>327.78100000000001</v>
+        <v>325.79399999999998</v>
       </c>
       <c r="Z135">
         <v>0</v>
